--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -58,7 +58,7 @@
     <t>BagsealNumberDeliveryHub</t>
   </si>
   <si>
-    <t>350</t>
+    <t>356</t>
   </si>
   <si>
     <t>santosh@esspl.com</t>
@@ -67,7 +67,7 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>ZND164421085074</t>
+    <t>ZND164454254652</t>
   </si>
   <si>
     <t>ZND163851277189</t>
@@ -82,22 +82,22 @@
     <t>MF/DSML/2112/003438</t>
   </si>
   <si>
-    <t>PU/DSML/2202/000017</t>
+    <t>PU/DSML/2202/000035</t>
   </si>
   <si>
     <t>PRS/DSML/2202/000093</t>
   </si>
   <si>
-    <t>348Z</t>
-  </si>
-  <si>
-    <t>349Z</t>
-  </si>
-  <si>
-    <t>350Z</t>
-  </si>
-  <si>
-    <t>DRS/DSML/2202/000076</t>
+    <t>354Zz</t>
+  </si>
+  <si>
+    <t>355Zz</t>
+  </si>
+  <si>
+    <t>356Zz</t>
+  </si>
+  <si>
+    <t>DRS/DSML/2202/000091</t>
   </si>
 </sst>
 </file>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -3,6 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+  </bookViews>
   <sheets>
     <sheet sheetId="1" name="dummy" state="visible" r:id="rId4"/>
   </sheets>
@@ -58,7 +61,7 @@
     <t>BagsealNumberDeliveryHub</t>
   </si>
   <si>
-    <t>356</t>
+    <t>372</t>
   </si>
   <si>
     <t>santosh@esspl.com</t>
@@ -67,7 +70,7 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>ZND164454254652</t>
+    <t>ZND164493577392</t>
   </si>
   <si>
     <t>ZND163851277189</t>
@@ -82,22 +85,22 @@
     <t>MF/DSML/2112/003438</t>
   </si>
   <si>
-    <t>PU/DSML/2202/000035</t>
+    <t>PU/DSML/2202/000052</t>
   </si>
   <si>
     <t>PRS/DSML/2202/000093</t>
   </si>
   <si>
-    <t>354Zz</t>
-  </si>
-  <si>
-    <t>355Zz</t>
-  </si>
-  <si>
-    <t>356Zz</t>
-  </si>
-  <si>
-    <t>DRS/DSML/2202/000091</t>
+    <t>370Zzr</t>
+  </si>
+  <si>
+    <t>371Zzr</t>
+  </si>
+  <si>
+    <t>372Zzr</t>
+  </si>
+  <si>
+    <t>DRS/DSML/2202/000114</t>
   </si>
 </sst>
 </file>
@@ -476,11 +479,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="11" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1"/>
+    <col min="17" max="17" width="24.7109375" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" ht="15" customHeight="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -571,11 +593,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -1,27 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="dummy" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+  <si>
+    <t>Debadatta</t>
+  </si>
+  <si>
+    <t>Bag Seal Number</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>BU Waybill Number</t>
+  </si>
+  <si>
+    <t>BU Rate Chart</t>
+  </si>
+  <si>
+    <t>PU Waybill Number</t>
+  </si>
+  <si>
+    <t>PU Rate Chart</t>
+  </si>
+  <si>
+    <t>Offline Waybill Lodgin</t>
+  </si>
+  <si>
+    <t>ManifestNumber</t>
+  </si>
+  <si>
+    <t>Pu Number</t>
+  </si>
+  <si>
+    <t>PRS number</t>
+  </si>
+  <si>
+    <t>BagsealNumberPickup</t>
+  </si>
+  <si>
+    <t>BagsealNumberPickuphub</t>
+  </si>
+  <si>
+    <t>BagsealNumberDeliveryHub</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>santosh@esspl.com</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>ZND164493577392</t>
+  </si>
+  <si>
+    <t>ZND163851277189</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>MF/DSML/2112/003437</t>
+  </si>
+  <si>
+    <t>MF/DSML/2112/003438</t>
+  </si>
+  <si>
+    <t>PU/DSML/2202/000052</t>
+  </si>
+  <si>
+    <t>PRS/DSML/2202/000093</t>
+  </si>
+  <si>
+    <t>370Zzr</t>
+  </si>
+  <si>
+    <t>371Zzr</t>
+  </si>
+  <si>
+    <t>372Zzr</t>
+  </si>
+  <si>
+    <t>DRS/DSML/2202/000114</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,7 +143,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -200,20 +300,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -335,19 +431,174 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="11" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1"/>
+    <col min="17" max="17" width="24.7109375" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="dummy" state="visible" r:id="rId4"/>
+    <sheet name="dummy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Debadatta</t>
   </si>
@@ -61,9 +61,6 @@
     <t>BagsealNumberDeliveryHub</t>
   </si>
   <si>
-    <t>372</t>
-  </si>
-  <si>
     <t>santosh@esspl.com</t>
   </si>
   <si>
@@ -89,15 +86,6 @@
   </si>
   <si>
     <t>PRS/DSML/2202/000093</t>
-  </si>
-  <si>
-    <t>370Zzr</t>
-  </si>
-  <si>
-    <t>371Zzr</t>
-  </si>
-  <si>
-    <t>372Zzr</t>
   </si>
   <si>
     <t>DRS/DSML/2202/000114</t>
@@ -106,14 +94,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -479,11 +467,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="P2:R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
@@ -502,7 +490,7 @@
     <col min="18" max="18" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,50 +540,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>375</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -1,103 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="dummy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
-  <si>
-    <t>Debadatta</t>
-  </si>
-  <si>
-    <t>Bag Seal Number</t>
-  </si>
-  <si>
-    <t>UserID</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>BU Waybill Number</t>
-  </si>
-  <si>
-    <t>BU Rate Chart</t>
-  </si>
-  <si>
-    <t>PU Waybill Number</t>
-  </si>
-  <si>
-    <t>PU Rate Chart</t>
-  </si>
-  <si>
-    <t>Offline Waybill Lodgin</t>
-  </si>
-  <si>
-    <t>ManifestNumber</t>
-  </si>
-  <si>
-    <t>Pu Number</t>
-  </si>
-  <si>
-    <t>PRS number</t>
-  </si>
-  <si>
-    <t>BagsealNumberPickup</t>
-  </si>
-  <si>
-    <t>BagsealNumberPickuphub</t>
-  </si>
-  <si>
-    <t>BagsealNumberDeliveryHub</t>
-  </si>
-  <si>
-    <t>santosh@esspl.com</t>
-  </si>
-  <si>
-    <t>Test@123</t>
-  </si>
-  <si>
-    <t>ZND164493577392</t>
-  </si>
-  <si>
-    <t>ZND163851277189</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>MF/DSML/2112/003437</t>
-  </si>
-  <si>
-    <t>MF/DSML/2112/003438</t>
-  </si>
-  <si>
-    <t>PU/DSML/2202/000052</t>
-  </si>
-  <si>
-    <t>PRS/DSML/2202/000093</t>
-  </si>
-  <si>
-    <t>DRS/DSML/2202/000114</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -125,21 +43,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -464,120 +374,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="P2:R2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="11" width="21.5703125" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" customWidth="1"/>
-    <col min="17" max="17" width="24.7109375" customWidth="1"/>
-    <col min="18" max="18" width="26.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Debadatta</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Bag Seal Number</v>
+      </c>
+      <c r="C1" t="str">
+        <v>UserID</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Password</v>
+      </c>
+      <c r="E1" t="str">
+        <v>BU Waybill Number</v>
+      </c>
+      <c r="F1" t="str">
+        <v>BU Rate Chart</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PU Waybill Number</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PU Rate Chart</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Offline Waybill Lodgin</v>
+      </c>
+      <c r="J1" t="str">
+        <v>ManifestNumber</v>
+      </c>
+      <c r="K1" t="str">
+        <v>ManifestNumber</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Pu Number</v>
+      </c>
+      <c r="N1" t="str">
+        <v>PRS number</v>
+      </c>
+      <c r="P1" t="str">
+        <v>BagsealNumberPickup</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>BagsealNumberPickuphub</v>
+      </c>
+      <c r="R1" t="str">
+        <v>BagsealNumberDeliveryHub</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
+      <c r="B2" t="str">
+        <v>375</v>
+      </c>
+      <c r="C2" t="str">
+        <v>santosh@esspl.com</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Test@123</v>
+      </c>
+      <c r="E2" t="str">
+        <v>ZND164493577392</v>
+      </c>
+      <c r="G2" t="str">
+        <v>ZND163851277189</v>
+      </c>
+      <c r="I2" t="str">
+        <v>138</v>
+      </c>
+      <c r="J2" t="str">
+        <v>MF/DSML/2112/003437</v>
+      </c>
+      <c r="K2" t="str">
+        <v>MF/DSML/2112/003438</v>
+      </c>
+      <c r="M2" t="str">
+        <v>PU/DSML/2202/000052</v>
+      </c>
+      <c r="N2" t="str">
+        <v>PRS/DSML/2202/000093</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>375</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>24</v>
+    <row r="4">
+      <c r="D4" t="str">
+        <v>DRS/DSML/2202/000114</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:R4"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -435,7 +435,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C2" t="str">
         <v>santosh@esspl.com</v>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -1,25 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="dummy" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="dummy" state="visible" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+  <si>
+    <t>Debadatta</t>
+  </si>
+  <si>
+    <t>Bag Seal Number</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>BU Waybill Number</t>
+  </si>
+  <si>
+    <t>BU Rate Chart</t>
+  </si>
+  <si>
+    <t>PU Waybill Number</t>
+  </si>
+  <si>
+    <t>PU Rate Chart</t>
+  </si>
+  <si>
+    <t>Offline Waybill Lodgin</t>
+  </si>
+  <si>
+    <t>ManifestNumber</t>
+  </si>
+  <si>
+    <t>Pu Number</t>
+  </si>
+  <si>
+    <t>PRS number</t>
+  </si>
+  <si>
+    <t>BagsealNumberPickup</t>
+  </si>
+  <si>
+    <t>BagsealNumberPickuphub</t>
+  </si>
+  <si>
+    <t>BagsealNumberDeliveryHub</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>santosh@esspl.com</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>ZND164500757991</t>
+  </si>
+  <si>
+    <t>ZND163851277189</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>MF/DSML/2112/003437</t>
+  </si>
+  <si>
+    <t>MF/DSML/2112/003438</t>
+  </si>
+  <si>
+    <t>PU/DSML/2202/000052</t>
+  </si>
+  <si>
+    <t>PRS/DSML/2202/000093</t>
+  </si>
+  <si>
+    <t>379Zzr</t>
+  </si>
+  <si>
+    <t>DRS/DSML/2202/000114</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,13 +131,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,105 +470,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Debadatta</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Bag Seal Number</v>
-      </c>
-      <c r="C1" t="str">
-        <v>UserID</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Password</v>
-      </c>
-      <c r="E1" t="str">
-        <v>BU Waybill Number</v>
-      </c>
-      <c r="F1" t="str">
-        <v>BU Rate Chart</v>
-      </c>
-      <c r="G1" t="str">
-        <v>PU Waybill Number</v>
-      </c>
-      <c r="H1" t="str">
-        <v>PU Rate Chart</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Offline Waybill Lodgin</v>
-      </c>
-      <c r="J1" t="str">
-        <v>ManifestNumber</v>
-      </c>
-      <c r="K1" t="str">
-        <v>ManifestNumber</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Pu Number</v>
-      </c>
-      <c r="N1" t="str">
-        <v>PRS number</v>
-      </c>
-      <c r="P1" t="str">
-        <v>BagsealNumberPickup</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>BagsealNumberPickuphub</v>
-      </c>
-      <c r="R1" t="str">
-        <v>BagsealNumberDeliveryHub</v>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>378</v>
-      </c>
-      <c r="C2" t="str">
-        <v>santosh@esspl.com</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Test@123</v>
-      </c>
-      <c r="E2" t="str">
-        <v>ZND164493577392</v>
-      </c>
-      <c r="G2" t="str">
-        <v>ZND163851277189</v>
-      </c>
-      <c r="I2" t="str">
-        <v>138</v>
-      </c>
-      <c r="J2" t="str">
-        <v>MF/DSML/2112/003437</v>
-      </c>
-      <c r="K2" t="str">
-        <v>MF/DSML/2112/003438</v>
-      </c>
-      <c r="M2" t="str">
-        <v>PU/DSML/2202/000052</v>
-      </c>
-      <c r="N2" t="str">
-        <v>PRS/DSML/2202/000093</v>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4">
-      <c r="D4" t="str">
-        <v>DRS/DSML/2202/000114</v>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R4"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Debadatta</t>
   </si>
@@ -61,7 +61,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>379</t>
+    <t>382</t>
   </si>
   <si>
     <t>santosh@esspl.com</t>
@@ -70,7 +70,7 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>ZND164500757991</t>
+    <t>ZND164500758080</t>
   </si>
   <si>
     <t>ZND163851277189</t>
@@ -85,13 +85,19 @@
     <t>MF/DSML/2112/003438</t>
   </si>
   <si>
-    <t>PU/DSML/2202/000052</t>
+    <t>PU/DSML/2202/000048</t>
   </si>
   <si>
     <t>PRS/DSML/2202/000093</t>
   </si>
   <si>
-    <t>379Zzr</t>
+    <t>380Zzr</t>
+  </si>
+  <si>
+    <t>381Zzr</t>
+  </si>
+  <si>
+    <t>382Zzr</t>
   </si>
   <si>
     <t>DRS/DSML/2202/000114</t>
@@ -527,7 +533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -563,11 +569,17 @@
       </c>
       <c r="P2" t="s">
         <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -61,7 +61,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>382</t>
+    <t>385</t>
   </si>
   <si>
     <t>santosh@esspl.com</t>
@@ -70,7 +70,7 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>ZND164500758080</t>
+    <t>ZND164501664144</t>
   </si>
   <si>
     <t>ZND163851277189</t>
@@ -91,10 +91,10 @@
     <t>PRS/DSML/2202/000093</t>
   </si>
   <si>
-    <t>380Zzr</t>
-  </si>
-  <si>
-    <t>381Zzr</t>
+    <t>385Zzr</t>
+  </si>
+  <si>
+    <t>384Zzr</t>
   </si>
   <si>
     <t>382Zzr</t>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -61,7 +61,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>385</t>
+    <t>387</t>
   </si>
   <si>
     <t>santosh@esspl.com</t>
@@ -70,7 +70,7 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>ZND164501664144</t>
+    <t>ZND164501664274</t>
   </si>
   <si>
     <t>ZND163851277189</t>
@@ -91,7 +91,7 @@
     <t>PRS/DSML/2202/000093</t>
   </si>
   <si>
-    <t>385Zzr</t>
+    <t>387Zzr</t>
   </si>
   <si>
     <t>384Zzr</t>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -61,7 +61,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>387</t>
+    <t>388</t>
   </si>
   <si>
     <t>santosh@esspl.com</t>
@@ -70,7 +70,7 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>ZND164501664274</t>
+    <t>ZND164510574786</t>
   </si>
   <si>
     <t>ZND163851277189</t>
@@ -85,13 +85,13 @@
     <t>MF/DSML/2112/003438</t>
   </si>
   <si>
-    <t>PU/DSML/2202/000048</t>
+    <t>PU/DSML/2202/000058</t>
   </si>
   <si>
     <t>PRS/DSML/2202/000093</t>
   </si>
   <si>
-    <t>387Zzr</t>
+    <t>388Zzr</t>
   </si>
   <si>
     <t>384Zzr</t>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -70,7 +70,7 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>ZND164510574786</t>
+    <t>ZND164516362950</t>
   </si>
   <si>
     <t>ZND163851277189</t>
@@ -85,7 +85,7 @@
     <t>MF/DSML/2112/003438</t>
   </si>
   <si>
-    <t>PU/DSML/2202/000058</t>
+    <t>PU/DSML/2202/000059</t>
   </si>
   <si>
     <t>PRS/DSML/2202/000093</t>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -61,7 +61,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>388</t>
+    <t>392</t>
   </si>
   <si>
     <t>santosh@esspl.com</t>
@@ -70,7 +70,7 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>ZND164516362950</t>
+    <t>ZND164544215600</t>
   </si>
   <si>
     <t>ZND163851277189</t>
@@ -85,22 +85,22 @@
     <t>MF/DSML/2112/003438</t>
   </si>
   <si>
-    <t>PU/DSML/2202/000059</t>
+    <t>PU/DSML/2202/000060</t>
   </si>
   <si>
     <t>PRS/DSML/2202/000093</t>
   </si>
   <si>
-    <t>388Zzr</t>
-  </si>
-  <si>
-    <t>384Zzr</t>
-  </si>
-  <si>
-    <t>382Zzr</t>
-  </si>
-  <si>
-    <t>DRS/DSML/2202/000114</t>
+    <t>390Zzr</t>
+  </si>
+  <si>
+    <t>391Zzr</t>
+  </si>
+  <si>
+    <t>392Zzr</t>
+  </si>
+  <si>
+    <t>DRS/DSML/2202/000131</t>
   </si>
 </sst>
 </file>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -3,6 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+  </bookViews>
   <sheets>
     <sheet sheetId="1" name="dummy" state="visible" r:id="rId4"/>
   </sheets>
@@ -11,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Debadatta</t>
   </si>
@@ -58,40 +61,31 @@
     <t>BagsealNumberDeliveryHub</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
     <t>santosh@esspl.com</t>
   </si>
   <si>
     <t>Test@123</t>
   </si>
   <si>
-    <t>ZND164544215600</t>
+    <t>ZND164544216850</t>
   </si>
   <si>
     <t>ZND163851277189</t>
   </si>
   <si>
-    <t>138</t>
-  </si>
-  <si>
     <t>MF/DSML/2112/003437</t>
   </si>
   <si>
     <t>MF/DSML/2112/003438</t>
   </si>
   <si>
-    <t>PU/DSML/2202/000060</t>
+    <t>PU/DSML/2202/000063</t>
   </si>
   <si>
     <t>PRS/DSML/2202/000093</t>
   </si>
   <si>
-    <t>390Zzr</t>
+    <t>393Zzr</t>
   </si>
   <si>
     <t>391Zzr</t>
@@ -107,13 +101,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,8 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,7 +244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,16 +311,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -431,157 +446,189 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="11" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1"/>
+    <col min="17" max="17" width="24.7109375" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>410</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="1">
+        <v>138</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="dummy" state="visible" r:id="rId4"/>
+    <sheet name="dummy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Debadatta</t>
   </si>
@@ -83,15 +83,6 @@
   </si>
   <si>
     <t>PRS/DSML/2202/000093</t>
-  </si>
-  <si>
-    <t>393Zzr</t>
-  </si>
-  <si>
-    <t>391Zzr</t>
-  </si>
-  <si>
-    <t>392Zzr</t>
   </si>
   <si>
     <t>DRS/DSML/2202/000131</t>
@@ -100,27 +91,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -455,11 +446,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
@@ -536,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -569,15 +560,9 @@
         <v>22</v>
       </c>
       <c r="O2" s="2"/>
-      <c r="P2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
@@ -608,7 +593,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -629,6 +614,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="8325"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="dummy" state="visible" r:id="rId4"/>
+    <sheet name="dummy" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -100,26 +100,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -430,18 +430,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="9.140625" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +496,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -545,7 +545,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -568,7 +568,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -594,7 +594,7 @@
       <c r="U4" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7479166666666667" right="0.7479166666666667" top="0.9840277777777777" bottom="0.9840277777777777" header="0.5118055555555555" footer="0.5118055555555555"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="0" fitToHeight="0" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="256" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="8325"/>
   </bookViews>
   <sheets>
-    <sheet name="dummy" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="dummy" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -61,7 +61,7 @@
     <t>BagsealNumberDeliveryHub</t>
   </si>
   <si>
-    <t>423</t>
+    <t>433</t>
   </si>
   <si>
     <t>santosh@esspl.com</t>
@@ -70,7 +70,7 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>ZND164544217512</t>
+    <t>ZND164544219936</t>
   </si>
   <si>
     <t>MF/DSML/2112/003437</t>
@@ -79,47 +79,47 @@
     <t>MF/DSML/2112/003438</t>
   </si>
   <si>
-    <t>PU/DSML/2202/000066</t>
+    <t>PU/DSML/2202/000072</t>
   </si>
   <si>
     <t>PRS/DSML/2202/000093</t>
   </si>
   <si>
-    <t>421Zzr</t>
-  </si>
-  <si>
-    <t>422Zzr</t>
-  </si>
-  <si>
-    <t>423Zzr</t>
-  </si>
-  <si>
-    <t>DRS/DSML/2202/000135</t>
+    <t>431Zzr</t>
+  </si>
+  <si>
+    <t>432Zzr</t>
+  </si>
+  <si>
+    <t>433Zzr</t>
+  </si>
+  <si>
+    <t>DRS/DSML/2202/000141</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <family val="2"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <family val="2"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -430,18 +430,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="9.140625" customHeight="1"/>
   <cols>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +496,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -545,7 +545,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -568,7 +568,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -594,7 +594,7 @@
       <c r="U4" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="256" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageMargins left="0.7479166666666667" right="0.7479166666666667" top="0.9840277777777777" bottom="0.9840277777777777" header="0.5118055555555555" footer="0.5118055555555555"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="0" fitToHeight="0" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -70,7 +70,7 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>ZND164544219936</t>
+    <t>ZND164622370375</t>
   </si>
   <si>
     <t>MF/DSML/2112/003437</t>
@@ -79,7 +79,7 @@
     <t>MF/DSML/2112/003438</t>
   </si>
   <si>
-    <t>PU/DSML/2202/000072</t>
+    <t>PU/DSML/2203/000005</t>
   </si>
   <si>
     <t>PRS/DSML/2202/000093</t>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="8325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="dummy" state="visible" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Debadatta</t>
   </si>
@@ -61,7 +61,10 @@
     <t>BagsealNumberDeliveryHub</t>
   </si>
   <si>
-    <t>433</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>606</t>
   </si>
   <si>
     <t>santosh@esspl.com</t>
@@ -70,7 +73,10 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>ZND164622370375</t>
+    <t>ZND164813341887</t>
+  </si>
+  <si>
+    <t>138</t>
   </si>
   <si>
     <t>MF/DSML/2112/003437</t>
@@ -79,47 +85,41 @@
     <t>MF/DSML/2112/003438</t>
   </si>
   <si>
-    <t>PU/DSML/2203/000005</t>
+    <t>PU/DSML/2203/000051</t>
   </si>
   <si>
     <t>PRS/DSML/2202/000093</t>
   </si>
   <si>
-    <t>431Zzr</t>
-  </si>
-  <si>
-    <t>432Zzr</t>
-  </si>
-  <si>
-    <t>433Zzr</t>
-  </si>
-  <si>
-    <t>DRS/DSML/2202/000141</t>
+    <t>604Zzr</t>
+  </si>
+  <si>
+    <t>605Zzr</t>
+  </si>
+  <si>
+    <t>606Zzr</t>
+  </si>
+  <si>
+    <t>DRS/DSML/2203/000154</t>
+  </si>
+  <si>
+    <t>uuuuu</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <family val="2"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <family val="2"/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,12 +142,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,39 +172,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,7 +239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,314 +283,319 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="9.140625" customHeight="1"/>
-  <cols>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" ht="15.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1">
-        <v>138</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="1" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="1" t="s">
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+    <row r="4" ht="15.75" customHeight="1" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+    <row r="5" ht="15.75" customHeight="1" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7479166666666667" right="0.7479166666666667" top="0.9840277777777777" bottom="0.9840277777777777" header="0.5118055555555555" footer="0.5118055555555555"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="0" fitToHeight="0" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>